--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC75B68-9070-47DF-A4D0-113FFA943729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92622F5-B70B-4D49-BD29-0ABC64159277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -95,6 +96,12 @@
   </si>
   <si>
     <t>NGC-3477/T1845</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2642</t>
   </si>
 </sst>
 </file>
@@ -737,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,4 +845,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88769DA2-D89D-4968-8921-C166CF21D974}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92622F5-B70B-4D49-BD29-0ABC64159277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F103359-FC3D-4E96-B575-5E81DA2C7AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>NGC-3476/T2642</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2435</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -745,7 +752,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88769DA2-D89D-4968-8921-C166CF21D974}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -952,4 +959,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568AE614-932B-4A8C-AC66-1F4E0E9D84EC}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F103359-FC3D-4E96-B575-5E81DA2C7AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5935ACB3-8A7B-4445-A2FC-804BDC6B7232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -109,6 +110,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3177</t>
   </si>
 </sst>
 </file>
@@ -965,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568AE614-932B-4A8C-AC66-1F4E0E9D84EC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,4 +1073,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A1D3FC-8FAB-4E7F-A6CF-31B999DF5AB6}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5935ACB3-8A7B-4445-A2FC-804BDC6B7232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21429518-5109-4431-A241-268EF06F5F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -116,6 +117,12 @@
   </si>
   <si>
     <t>NGC-2930/T3177</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2219</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A1D3FC-8FAB-4E7F-A6CF-31B999DF5AB6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,4 +1187,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B6905-EAB8-4987-8A8D-EAB5F307887B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21429518-5109-4431-A241-268EF06F5F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA5C3D-E087-4A47-8CAE-7109A35D6F11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -123,6 +124,12 @@
   </si>
   <si>
     <t>NGC-3145/T2219</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2045</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B6905-EAB8-4987-8A8D-EAB5F307887B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,4 +1301,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6D891-A6E7-4B7E-BD9E-897CD7B22EB1}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA5C3D-E087-4A47-8CAE-7109A35D6F11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718BBE70-3B05-4951-A959-B11D33D4D29E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -130,6 +131,12 @@
   </si>
   <si>
     <t>NGC-3103/T2045</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3310</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6D891-A6E7-4B7E-BD9E-897CD7B22EB1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1408,4 +1415,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EFDC8C-76FD-4588-8777-ADB1EFF1F55B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718BBE70-3B05-4951-A959-B11D33D4D29E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C9B2D-5247-47CA-B035-A75FCD58C46E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>NGC-3191/T3310</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2473</t>
   </si>
 </sst>
 </file>
@@ -668,6 +675,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C7A654-DB04-4B73-A533-F20DD19EFCD0}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100301BA-E805-443B-A00F-1C84443A8573}">
   <dimension ref="A1:D12"/>
@@ -1421,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EFDC8C-76FD-4588-8777-ADB1EFF1F55B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C9B2D-5247-47CA-B035-A75FCD58C46E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242150C1-FA45-4E6E-A676-59C461706273}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
+    <sheet name="Greece" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -144,6 +145,12 @@
   </si>
   <si>
     <t>NGC-3139/T2473</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3205</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -679,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C7A654-DB04-4B73-A533-F20DD19EFCD0}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,6 +733,112 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF77DC5-9896-47BF-81EB-8E300991C4C9}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242150C1-FA45-4E6E-A676-59C461706273}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A712C271-4B86-43C5-B1CA-0057FEBAE887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
     <sheet name="Greece" sheetId="21" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
+    <sheet name="Austria" sheetId="23" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -151,6 +154,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2188</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2295</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2783</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -213,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -236,11 +257,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -258,6 +305,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF77DC5-9896-47BF-81EB-8E300991C4C9}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -876,6 +925,322 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B233EB5-D1A9-46D5-AFE6-4AF0FFDF9470}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B9CCD3-6163-4E58-A5AC-528EB0C12ED6}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184172A-DC31-4C39-8302-3052FEE38F3B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A712C271-4B86-43C5-B1CA-0057FEBAE887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E2ABC-4498-4851-87B5-53D8CA23274B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
     <sheet name="Austria" sheetId="23" r:id="rId13"/>
     <sheet name="Denmark" sheetId="24" r:id="rId14"/>
+    <sheet name="Russia" sheetId="26" r:id="rId15"/>
+    <sheet name="Finland" sheetId="27" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -172,6 +175,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2887</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2979</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -299,14 +320,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,12 +657,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -650,10 +671,10 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -747,12 +768,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -761,10 +782,10 @@
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -853,12 +874,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -867,10 +888,10 @@
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -960,12 +981,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -974,10 +995,10 @@
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1067,12 +1088,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1081,10 +1102,10 @@
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1156,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184172A-DC31-4C39-8302-3052FEE38F3B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1169,12 +1190,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1183,10 +1204,10 @@
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1230,7 +1251,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1240,7 +1261,325 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482BA49D-9814-40BF-995F-4303FB220037}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B66BB6-2632-4C4F-B3AC-A11991655B96}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B9FA73-CAD6-4348-838A-9E762D20F48E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1276,12 +1615,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1290,10 +1629,10 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1383,12 +1722,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1397,10 +1736,10 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1490,12 +1829,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1504,10 +1843,10 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1597,12 +1936,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1611,10 +1950,10 @@
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1704,12 +2043,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1718,10 +2057,10 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1811,12 +2150,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1825,10 +2164,10 @@
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1918,12 +2257,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1932,10 +2271,10 @@
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2024,12 +2363,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2038,10 +2377,10 @@
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">

--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E2ABC-4498-4851-87B5-53D8CA23274B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690F9844-E0B9-4ED2-A255-3F89D7C854A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="26" r:id="rId15"/>
     <sheet name="Finland" sheetId="27" r:id="rId16"/>
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
+    <sheet name="Norway" sheetId="29" r:id="rId18"/>
+    <sheet name="Poland" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -193,6 +195,24 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3071</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3037</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
   </si>
 </sst>
 </file>
@@ -754,10 +774,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C7A654-DB04-4B73-A533-F20DD19EFCD0}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,21 +850,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -860,10 +890,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF77DC5-9896-47BF-81EB-8E300991C4C9}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,21 +966,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1496,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B9FA73-CAD6-4348-838A-9E762D20F48E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
@@ -1585,6 +1625,238 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1E197-A92E-40EB-82CE-521BEB72C400}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAC509C-1E5C-4601-949F-D9CD2F267C20}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1921,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568AE614-932B-4A8C-AC66-1F4E0E9D84EC}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1998,21 +2270,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690F9844-E0B9-4ED2-A255-3F89D7C854A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8109611D-007E-4BA9-AF69-479B5F7A2F8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -1534,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B9FA73-CAD6-4348-838A-9E762D20F48E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,11 +1620,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2195,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568AE614-932B-4A8C-AC66-1F4E0E9D84EC}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2524,10 +2534,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6D891-A6E7-4B7E-BD9E-897CD7B22EB1}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2611,11 +2621,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2631,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EFDC8C-76FD-4588-8777-ADB1EFF1F55B}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2717,11 +2737,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8109611D-007E-4BA9-AF69-479B5F7A2F8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEC54E9-01A5-4FC7-80D1-4AAC10F974C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -1006,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B233EB5-D1A9-46D5-AFE6-4AF0FFDF9470}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,11 +1093,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1113,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B9CCD3-6163-4E58-A5AC-528EB0C12ED6}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,11 +1205,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1215,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184172A-DC31-4C39-8302-3052FEE38F3B}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,12 +1321,22 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>0</v>
+      <c r="A11" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1536,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B9FA73-CAD6-4348-838A-9E762D20F48E}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
@@ -2320,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A1D3FC-8FAB-4E7F-A6CF-31B999DF5AB6}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2407,11 +2437,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2427,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B6905-EAB8-4987-8A8D-EAB5F307887B}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2514,11 +2554,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEC54E9-01A5-4FC7-80D1-4AAC10F974C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1FC9F2-16A3-4E4A-9E15-6AC389568146}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -1237,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184172A-DC31-4C39-8302-3052FEE38F3B}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
@@ -1352,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482BA49D-9814-40BF-995F-4303FB220037}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,7 +1365,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1438,11 +1438,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1458,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B66BB6-2632-4C4F-B3AC-A11991655B96}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,7 +1481,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1544,11 +1554,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1FC9F2-16A3-4E4A-9E15-6AC389568146}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D41C20-EDD5-424D-B761-5DD58C9E5C15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
     <sheet name="Norway" sheetId="29" r:id="rId18"/>
     <sheet name="Poland" sheetId="30" r:id="rId19"/>
+    <sheet name="UK" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="56">
   <si>
     <t>Wg</t>
   </si>
@@ -213,6 +214,12 @@
   </si>
   <si>
     <t>MX-DPBX</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3365</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B66BB6-2632-4C4F-B3AC-A11991655B96}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
@@ -2037,6 +2044,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6706C9-8A94-4212-BA48-1770D3DBE2C3}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
   <dimension ref="A1:D12"/>
